--- a/data/Puente Project Tracker 1-8.xlsx
+++ b/data/Puente Project Tracker 1-8.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmsua\Box\ND Classes\Spring 2021\Puente Senior Capstone\map\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C8624-710B-4AD0-AB4B-8DA47A4E564C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4639DA-4697-42B0-857F-EE77C7F67A4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5502" yWindow="966" windowWidth="16350" windowHeight="10554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="1044" windowWidth="14568" windowHeight="10554" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapCommunities" sheetId="4" r:id="rId1"/>
+    <sheet name="MapCities" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapCommunities!$A$1:$A$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -26,15 +30,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjgqnCsuziHjm2vkcXPwYri+weQag=="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Rainwater Collection</t>
   </si>
@@ -64,6 +65,105 @@
   </si>
   <si>
     <t>Community</t>
+  </si>
+  <si>
+    <t>El Convento</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Tireo Arriba</t>
+  </si>
+  <si>
+    <t>La Luisa</t>
+  </si>
+  <si>
+    <t>San Isidro</t>
+  </si>
+  <si>
+    <t>Barrio El Padre</t>
+  </si>
+  <si>
+    <t>Barrio Juan Pedro</t>
+  </si>
+  <si>
+    <t>Barrio San Juan</t>
+  </si>
+  <si>
+    <t>El Cercado</t>
+  </si>
+  <si>
+    <t>El Arenazo</t>
+  </si>
+  <si>
+    <t>Colonial Japonesa</t>
+  </si>
+  <si>
+    <t>Calle Sanchez</t>
+  </si>
+  <si>
+    <t>El Gajo</t>
+  </si>
+  <si>
+    <t>El Paraiso</t>
+  </si>
+  <si>
+    <t>El Tornado</t>
+  </si>
+  <si>
+    <t>La Altagracia</t>
+  </si>
+  <si>
+    <t>La Cotorra</t>
+  </si>
+  <si>
+    <t>El Valle</t>
+  </si>
+  <si>
+    <t>Barrio Las Flores</t>
+  </si>
+  <si>
+    <t>La Sabina</t>
+  </si>
+  <si>
+    <t>La Planta</t>
+  </si>
+  <si>
+    <t>Las Mercedes</t>
+  </si>
+  <si>
+    <t>Los Pinos</t>
+  </si>
+  <si>
+    <t>Pueblo Nuevo</t>
+  </si>
+  <si>
+    <t>Paragua</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Villa Hortaliza</t>
+  </si>
+  <si>
+    <t>Villa Montana</t>
+  </si>
+  <si>
+    <t>Villa Pinales</t>
+  </si>
+  <si>
+    <t>Constanza</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Tireo</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -96,8 +196,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -121,12 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,25 +443,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E2BF7D-3B10-4EA9-91A5-55BDE2C92C18}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.37890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.76171875" style="4"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="8.5234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.37890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>11</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>16</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A76" xr:uid="{82AE8C62-C29D-4803-98FF-087B9EECB3DB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A522B37C-CFD6-46E3-8051-4F85DE5D41CC}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -376,83 +1263,119 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <f>SUMIF(MapCommunities!A:A,A2,MapCommunities!C:C)</f>
+        <v>91</v>
+      </c>
+      <c r="C2" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$2,MapCommunities!D:D)</f>
+        <v>68</v>
+      </c>
+      <c r="D2" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$2,MapCommunities!E:E)</f>
+        <v>265</v>
+      </c>
+      <c r="E2" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$2,MapCommunities!F:F)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$2,MapCommunities!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$2,MapCommunities!H:H)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$3,MapCommunities!C:C)</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$3,MapCommunities!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$3,MapCommunities!E:E)</f>
+        <v>31</v>
+      </c>
+      <c r="E3" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$3,MapCommunities!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$3,MapCommunities!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$3,MapCommunities!H:H)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$4,MapCommunities!C:C)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1">
-        <v>74</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$4,MapCommunities!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$4,MapCommunities!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$4,MapCommunities!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$4,MapCommunities!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$4,MapCommunities!H:H)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>31</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$5,MapCommunities!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$5,MapCommunities!D:D)</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$5,MapCommunities!E:E)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$5,MapCommunities!F:F)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$5,MapCommunities!G:G)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <f>SUMIF(MapCommunities!$A:$A,$A$5,MapCommunities!H:H)</f>
         <v>0</v>
       </c>
     </row>
